--- a/IntegrationClient/Layout/Layout_Exportacao_Mapa.xlsx
+++ b/IntegrationClient/Layout/Layout_Exportacao_Mapa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juremir.JMSOFT\Google Drive\FLUID State\Clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SystemCore\Manager\IntegrationClient\Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FC6391-F6BD-4402-BB3C-486A61AB254D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB305786-3FFB-4229-9017-E87CED1D13AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,22 +404,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>43544</xdr:colOff>
+      <xdr:colOff>87085</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>51769</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
+      <xdr:colOff>1377476</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>102784</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA5BA79-FA06-49B1-B6ED-179FF0C9B290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA98334-8E4C-49D2-9466-75DD205B6A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -441,8 +441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43544" y="51769"/>
-          <a:ext cx="2710541" cy="802129"/>
+          <a:off x="87085" y="141514"/>
+          <a:ext cx="3228048" cy="609601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,9 +781,9 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47:J47"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
